--- a/Aplicación Tesis (respuestas).xlsx
+++ b/Aplicación Tesis (respuestas).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanfraire/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanfraire/Documents/GitHub/tesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DF4FB0-BB31-8A4A-A365-6CC5D01F67DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B855D8-F893-9345-8228-E2C7620B6868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -235,9 +235,6 @@
     <t>Numeros</t>
   </si>
   <si>
-    <t>Frecuencia de Minutos</t>
-  </si>
-  <si>
     <t>Respuesta</t>
   </si>
   <si>
@@ -245,6 +242,18 @@
   </si>
   <si>
     <t>SUMA</t>
+  </si>
+  <si>
+    <t>Tarea 1</t>
+  </si>
+  <si>
+    <t>Tarea 2</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Desviación Estándar</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -268,6 +277,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFE4E6EB"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -339,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -360,6 +380,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +497,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$C$36:$C$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$D$36:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -498,7 +527,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$E$36:$E$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$F$36:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -533,7 +562,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -900,7 +928,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$C$36:$C$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$D$36:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -930,7 +958,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$F$36:$F$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$G$36:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1370,7 +1398,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$C$36:$C$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$D$36:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1400,7 +1428,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$G$36:$G$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$H$36:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1840,7 +1868,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$C$36:$C$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$D$36:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1870,7 +1898,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$I$36:$I$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$J$36:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2271,7 +2299,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$C$36:$C$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$D$36:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2301,7 +2329,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$J$36:$J$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$K$36:$K$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2741,7 +2769,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$C$36:$C$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$D$36:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2771,7 +2799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$I$36:$I$42</c:f>
+              <c:f>'Respuestas de formulario 1'!$J$36:$J$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -3133,6 +3161,7 @@
       <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3141,14 +3170,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3173,14 +3202,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3200,130 +3229,61 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent4"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent4"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
-            <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$C$36:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
               <c:f>'Respuestas de formulario 1'!$D$36:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Respuestas de formulario 1'!$E$36:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3358,21 +3318,19 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EA8-5A47-8F61-2AE78E5905C4}"/>
+              <c16:uniqueId val="{00000000-B138-B841-9A1A-EBD0B1D77C50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1191646880"/>
         <c:axId val="1191671840"/>
       </c:barChart>
@@ -3390,14 +3348,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -3422,14 +3380,14 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -3444,11 +3402,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3467,7 +3425,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3489,6 +3447,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3510,33 +3482,22 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:srgbClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" sz="900" b="0" i="0" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-US"/>
                   <a:t>Número de usuarios</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-MX">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3567,14 +3528,14 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:srgbClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -3584,7 +3545,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3606,7 +3567,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3650,7 +3611,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="es-MX"/>
     </a:p>
@@ -3684,14 +3647,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -3716,14 +3679,14 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times" pitchFamily="2" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -3743,87 +3706,18 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:pattFill prst="narHorz">
-              <a:fgClr>
-                <a:schemeClr val="accent6"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:bgClr>
-            </a:pattFill>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:innerShdw blurRad="114300">
-                <a:schemeClr val="accent6"/>
-              </a:innerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$C$36:$C$45</c:f>
+              <c:f>'Respuestas de formulario 1'!$D$36:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3862,7 +3756,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Respuestas de formulario 1'!$H$36:$H$45</c:f>
+              <c:f>'Respuestas de formulario 1'!$I$36:$I$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3901,21 +3795,19 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-17A6-004D-AD10-4A15C3BA34E3}"/>
+              <c16:uniqueId val="{00000000-B138-B841-9A1A-EBD0B1D77C50}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="164"/>
-        <c:overlap val="-22"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1191646880"/>
         <c:axId val="1191671840"/>
       </c:barChart>
@@ -3933,7 +3825,553 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Minutos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191671840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1191671840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:srgbClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de usuarios</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:srgbClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-MX"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1191646880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times" pitchFamily="2" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Tiempo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> para realizar Tarea 1 y 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Respuestas de formulario 1'!$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarea 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Respuestas de formulario 1'!$E$36:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-860E-BC44-AFC1-46A6E5710BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Respuestas de formulario 1'!$I$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarea 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Respuestas de formulario 1'!$I$36:$I$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-860E-BC44-AFC1-46A6E5710BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:smooth val="0"/>
+        <c:axId val="787126383"/>
+        <c:axId val="787202191"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="787126383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3965,7 +4403,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3987,11 +4425,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4018,7 +4456,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1191671840"/>
+        <c:crossAx val="787202191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4026,39 +4464,39 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1191671840"/>
+        <c:axId val="787202191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                  <a:lnSpc>
-                    <a:spcPct val="100000"/>
-                  </a:lnSpc>
-                  <a:spcBef>
-                    <a:spcPts val="0"/>
-                  </a:spcBef>
-                  <a:spcAft>
-                    <a:spcPts val="0"/>
-                  </a:spcAft>
-                  <a:buClrTx/>
-                  <a:buSzTx/>
-                  <a:buFontTx/>
-                  <a:buNone/>
-                  <a:tabLst/>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:srgbClr>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4066,20 +4504,9 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="es-MX" sz="900" b="0" i="0" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="595959"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Times" pitchFamily="2" charset="0"/>
-                    <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="es-MX"/>
                   <a:t>Número de usuarios</a:t>
                 </a:r>
-                <a:endParaRPr lang="es-MX">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4095,27 +4522,13 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-                <a:lnSpc>
-                  <a:spcPct val="100000"/>
-                </a:lnSpc>
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buClrTx/>
-                <a:buSzTx/>
-                <a:buFontTx/>
-                <a:buNone/>
-                <a:tabLst/>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:srgbClr val="000000">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:srgbClr>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4127,7 +4540,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -4157,7 +4570,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1191646880"/>
+        <c:crossAx val="787126383"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4169,8 +4582,46 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4254,6 +4705,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7273,7 +7764,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7284,7 +7775,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7297,11 +7788,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7314,7 +7805,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7330,7 +7821,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7374,70 +7865,32 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -7449,29 +7902,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -7493,13 +7950,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7514,15 +7973,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7533,10 +7992,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -7552,14 +8011,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7571,24 +8030,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -7597,16 +8063,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -7615,10 +8082,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -7628,26 +8114,67 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -7657,66 +8184,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -7725,13 +8193,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7761,8 +8230,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7785,14 +8254,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="203">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7803,7 +8278,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -7816,11 +8291,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7833,7 +8308,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -7849,7 +8324,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -7893,70 +8368,32 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="narHorz">
-        <a:fgClr>
-          <a:schemeClr val="phClr"/>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="phClr">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:bgClr>
-      </a:pattFill>
-      <a:effectLst>
-        <a:innerShdw blurRad="114300">
-          <a:schemeClr val="phClr"/>
-        </a:innerShdw>
-      </a:effectLst>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -7968,29 +8405,33 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8012,13 +8453,15 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -8033,15 +8476,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8052,10 +8495,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -8071,14 +8514,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8090,24 +8533,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -8116,16 +8566,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -8134,10 +8585,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -8147,26 +8617,67 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -8176,66 +8687,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -8244,13 +8696,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -8280,8 +8733,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -8304,8 +8757,530 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8314,13 +9289,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>57048</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>152650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>15301</xdr:colOff>
       <xdr:row>72</xdr:row>
       <xdr:rowOff>107109</xdr:rowOff>
@@ -8350,13 +9325,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1570847</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>161337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1553291</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>155734</xdr:rowOff>
@@ -8388,13 +9363,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>45904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1619671</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>55603</xdr:rowOff>
@@ -8426,13 +9401,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>153012</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>15302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>135454</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>162711</xdr:rowOff>
@@ -8464,13 +9439,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>566146</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>15301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>548588</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>9698</xdr:rowOff>
@@ -8502,13 +9477,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>550845</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>45904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>533287</xdr:colOff>
       <xdr:row>123</xdr:row>
       <xdr:rowOff>55603</xdr:rowOff>
@@ -8540,13 +9515,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>-1</xdr:colOff>
       <xdr:row>126</xdr:row>
       <xdr:rowOff>45904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>30604</xdr:rowOff>
@@ -8578,13 +9553,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>612048</xdr:colOff>
       <xdr:row>125</xdr:row>
       <xdr:rowOff>107109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>612048</xdr:colOff>
       <xdr:row>148</xdr:row>
       <xdr:rowOff>91808</xdr:rowOff>
@@ -8609,6 +9584,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70555</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>187678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112889</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8EF8724-C1A0-F94E-9097-E9C4D32DDBE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8813,26 +9824,218 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Sheets">
+    <a:dk1>
+      <a:srgbClr val="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="000000"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="FFFFFF"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4285F4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="EA4335"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="FBBC04"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="34A853"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="FF6D01"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="46BDC6"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="1155CC"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="1155CC"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Sheets">
+    <a:majorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface="Arial"/>
+      <a:cs typeface="Arial"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Arial"/>
+      <a:ea typeface="Arial"/>
+      <a:cs typeface="Arial"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="18" width="21.5" customWidth="1"/>
+    <col min="2" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="19" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8840,235 +10043,253 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>44284.827936851856</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="7">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>7</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>4</v>
       </c>
-      <c r="I2" s="5">
+      <c r="J2" s="5">
         <v>3</v>
       </c>
-      <c r="J2" s="5">
+      <c r="K2" s="5">
         <v>6</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>44286.653780462962</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="7">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="E3" s="3">
         <v>4</v>
-      </c>
-      <c r="E3" s="3">
-        <v>5</v>
       </c>
       <c r="F3" s="3">
         <v>5</v>
       </c>
       <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
         <v>6</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>8</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3</v>
       </c>
       <c r="J3" s="5">
         <v>3</v>
       </c>
       <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6">
         <v>44288.587815960651</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="7">
+        <v>23</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>7</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>6</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>7</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>7</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>6</v>
-      </c>
-      <c r="J4" s="5">
-        <v>7</v>
       </c>
       <c r="K4" s="5">
         <v>7</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5">
+        <v>7</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6">
         <v>44292.878750081014</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>7</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>9</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>3</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>6</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>4</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6">
         <v>44292.922060439814</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="7">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>7</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>4</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3</v>
       </c>
       <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
         <v>5</v>
-      </c>
-      <c r="I6" s="5">
-        <v>3</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
       </c>
       <c r="K6" s="5">
+        <v>3</v>
+      </c>
+      <c r="L6" s="5">
         <v>7</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6">
         <v>44293.580449664354</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="7">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>7</v>
       </c>
       <c r="F7" s="3">
         <v>7</v>
@@ -9076,11 +10297,11 @@
       <c r="G7" s="3">
         <v>7</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="3">
+        <v>7</v>
+      </c>
+      <c r="I7" s="5">
         <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>5</v>
       </c>
       <c r="J7" s="5">
         <v>5</v>
@@ -9088,34 +10309,37 @@
       <c r="K7" s="5">
         <v>5</v>
       </c>
+      <c r="L7" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6">
         <v>44298.510159490739</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="7">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7</v>
       </c>
       <c r="F8" s="3">
         <v>7</v>
       </c>
       <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="3">
         <v>6</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4</v>
       </c>
       <c r="J8" s="5">
         <v>4</v>
@@ -9123,25 +10347,28 @@
       <c r="K8" s="5">
         <v>4</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5">
+        <v>4</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6">
         <v>44298.707806747683</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="7">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>7</v>
       </c>
       <c r="F9" s="3">
         <v>7</v>
@@ -9149,11 +10376,11 @@
       <c r="G9" s="3">
         <v>7</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="3">
+        <v>7</v>
+      </c>
+      <c r="I9" s="5">
         <v>4</v>
-      </c>
-      <c r="I9" s="5">
-        <v>7</v>
       </c>
       <c r="J9" s="5">
         <v>7</v>
@@ -9161,136 +10388,148 @@
       <c r="K9" s="5">
         <v>7</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5">
+        <v>7</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6">
         <v>44298.782700613425</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="7">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
       </c>
       <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
         <v>6</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>5</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>4</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>5</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>7</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6">
         <v>44298.786158703704</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="7">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4</v>
       </c>
       <c r="G11" s="3">
         <v>4</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5">
         <v>3</v>
-      </c>
-      <c r="I11" s="5">
-        <v>5</v>
       </c>
       <c r="J11" s="5">
         <v>5</v>
       </c>
       <c r="K11" s="5">
+        <v>5</v>
+      </c>
+      <c r="L11" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6">
         <v>44298.823297731476</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="7">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>4</v>
       </c>
       <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>6</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>8</v>
-      </c>
-      <c r="I12" s="5">
-        <v>6</v>
       </c>
       <c r="J12" s="5">
         <v>6</v>
       </c>
       <c r="K12" s="5">
+        <v>6</v>
+      </c>
+      <c r="L12" s="5">
         <v>5</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6">
         <v>44298.827582835649</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="7">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>2</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7</v>
       </c>
       <c r="F13" s="3">
         <v>7</v>
@@ -9298,37 +10537,40 @@
       <c r="G13" s="3">
         <v>7</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="3">
+        <v>7</v>
+      </c>
+      <c r="I13" s="5">
         <v>10</v>
-      </c>
-      <c r="I13" s="5">
-        <v>4</v>
       </c>
       <c r="J13" s="5">
         <v>4</v>
       </c>
       <c r="K13" s="5">
+        <v>4</v>
+      </c>
+      <c r="L13" s="5">
         <v>6</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6">
         <v>44299.559313738428</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="7">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>9</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7</v>
       </c>
       <c r="F14" s="3">
         <v>7</v>
@@ -9336,11 +10578,11 @@
       <c r="G14" s="3">
         <v>7</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
+        <v>7</v>
+      </c>
+      <c r="I14" s="5">
         <v>3</v>
-      </c>
-      <c r="I14" s="5">
-        <v>7</v>
       </c>
       <c r="J14" s="5">
         <v>7</v>
@@ -9348,25 +10590,28 @@
       <c r="K14" s="5">
         <v>7</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="5">
+        <v>7</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6">
         <v>44299.665203888886</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="7">
+        <v>22</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>2</v>
-      </c>
-      <c r="E15" s="3">
-        <v>7</v>
       </c>
       <c r="F15" s="3">
         <v>7</v>
@@ -9374,11 +10619,11 @@
       <c r="G15" s="3">
         <v>7</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="3">
+        <v>7</v>
+      </c>
+      <c r="I15" s="5">
         <v>2</v>
-      </c>
-      <c r="I15" s="5">
-        <v>7</v>
       </c>
       <c r="J15" s="5">
         <v>7</v>
@@ -9386,31 +10631,34 @@
       <c r="K15" s="5">
         <v>7</v>
       </c>
+      <c r="L15" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6">
         <v>44299.773933784723</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="7">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>3</v>
-      </c>
-      <c r="E16" s="3">
-        <v>6</v>
       </c>
       <c r="F16" s="3">
         <v>6</v>
       </c>
       <c r="G16" s="3">
+        <v>6</v>
+      </c>
+      <c r="H16" s="3">
         <v>5</v>
-      </c>
-      <c r="H16" s="5">
-        <v>6</v>
       </c>
       <c r="I16" s="5">
         <v>6</v>
@@ -9421,22 +10669,25 @@
       <c r="K16" s="5">
         <v>6</v>
       </c>
+      <c r="L16" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6">
         <v>44299.776747835647</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="7">
+        <v>18</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>2</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7</v>
       </c>
       <c r="F17" s="3">
         <v>7</v>
@@ -9444,122 +10695,131 @@
       <c r="G17" s="3">
         <v>7</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="3">
         <v>7</v>
       </c>
       <c r="I17" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17" s="5">
         <v>6</v>
       </c>
       <c r="K17" s="5">
+        <v>6</v>
+      </c>
+      <c r="L17" s="5">
         <v>5</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6">
         <v>44299.790980844904</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="7">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>1</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6</v>
-      </c>
-      <c r="F18" s="3">
-        <v>5</v>
       </c>
       <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5">
         <v>7</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>5</v>
-      </c>
-      <c r="J18" s="5">
-        <v>6</v>
       </c>
       <c r="K18" s="5">
         <v>6</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="5">
+        <v>6</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6">
         <v>44300.524045648148</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="7">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>7</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6</v>
       </c>
       <c r="G19" s="3">
         <v>6</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5">
         <v>8</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>5</v>
-      </c>
-      <c r="J19" s="5">
-        <v>6</v>
       </c>
       <c r="K19" s="5">
         <v>6</v>
       </c>
+      <c r="L19" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6">
         <v>44300.711514710652</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="7">
+        <v>37</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6</v>
-      </c>
-      <c r="F20" s="3">
-        <v>5</v>
       </c>
       <c r="G20" s="3">
         <v>5</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
         <v>8</v>
-      </c>
-      <c r="I20" s="5">
-        <v>6</v>
       </c>
       <c r="J20" s="5">
         <v>6</v>
@@ -9567,57 +10827,63 @@
       <c r="K20" s="5">
         <v>6</v>
       </c>
+      <c r="L20" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6">
         <v>44300.715066296296</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="7">
+        <v>38</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>6</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>7</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>5</v>
-      </c>
-      <c r="J21" s="5">
-        <v>6</v>
       </c>
       <c r="K21" s="5">
         <v>6</v>
       </c>
+      <c r="L21" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6">
         <v>44301.494175150467</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="7">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>2</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6</v>
       </c>
       <c r="F22" s="3">
         <v>6</v>
@@ -9625,8 +10891,8 @@
       <c r="G22" s="3">
         <v>6</v>
       </c>
-      <c r="H22" s="5">
-        <v>7</v>
+      <c r="H22" s="3">
+        <v>6</v>
       </c>
       <c r="I22" s="5">
         <v>7</v>
@@ -9637,22 +10903,25 @@
       <c r="K22" s="5">
         <v>7</v>
       </c>
+      <c r="L22" s="5">
+        <v>7</v>
+      </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6">
         <v>44301.552131828706</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="7">
+        <v>21</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>5</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
@@ -9660,43 +10929,46 @@
       <c r="G23" s="3">
         <v>5</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="5">
         <v>7</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>6</v>
-      </c>
-      <c r="J23" s="5">
-        <v>5</v>
       </c>
       <c r="K23" s="5">
         <v>5</v>
       </c>
+      <c r="L23" s="5">
+        <v>5</v>
+      </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6">
         <v>44301.572755659727</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>4</v>
-      </c>
-      <c r="E24" s="3">
-        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>5</v>
       </c>
       <c r="G24" s="3">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>7</v>
-      </c>
-      <c r="H24" s="5">
-        <v>6</v>
       </c>
       <c r="I24" s="5">
         <v>6</v>
@@ -9707,57 +10979,63 @@
       <c r="K24" s="5">
         <v>6</v>
       </c>
+      <c r="L24" s="5">
+        <v>6</v>
+      </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6">
         <v>44301.624637337962</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>3</v>
-      </c>
-      <c r="E25" s="3">
-        <v>6</v>
       </c>
       <c r="F25" s="3">
         <v>6</v>
       </c>
       <c r="G25" s="3">
-        <v>7</v>
-      </c>
-      <c r="H25" s="5">
+        <v>6</v>
+      </c>
+      <c r="H25" s="3">
         <v>7</v>
       </c>
       <c r="I25" s="5">
         <v>7</v>
       </c>
       <c r="J25" s="5">
+        <v>7</v>
+      </c>
+      <c r="K25" s="5">
         <v>6</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6">
         <v>44301.632182731482</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="7">
+        <v>27</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="3">
+      <c r="E26" s="3">
         <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6</v>
       </c>
       <c r="F26" s="3">
         <v>6</v>
@@ -9765,72 +11043,78 @@
       <c r="G26" s="3">
         <v>6</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5">
         <v>7</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>6</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>5</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>6</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6">
         <v>44301.636789027776</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="7">
+        <v>32</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="D27" s="3">
-        <v>5</v>
       </c>
       <c r="E27" s="3">
         <v>5</v>
       </c>
       <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>8</v>
-      </c>
-      <c r="I27" s="5">
-        <v>6</v>
       </c>
       <c r="J27" s="5">
         <v>6</v>
       </c>
       <c r="K27" s="5">
+        <v>6</v>
+      </c>
+      <c r="L27" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6">
         <v>44301.64168666667</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="7">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="3">
+      <c r="E28" s="3">
         <v>2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>5</v>
       </c>
       <c r="F28" s="3">
         <v>5</v>
@@ -9838,34 +11122,37 @@
       <c r="G28" s="3">
         <v>5</v>
       </c>
-      <c r="H28" s="5">
-        <v>6</v>
+      <c r="H28" s="3">
+        <v>5</v>
       </c>
       <c r="I28" s="5">
         <v>6</v>
       </c>
       <c r="J28" s="5">
+        <v>6</v>
+      </c>
+      <c r="K28" s="5">
         <v>5</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6">
         <v>44301.646325428243</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="7">
+        <v>30</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="3">
+      <c r="E29" s="3">
         <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>5</v>
       </c>
       <c r="F29" s="3">
         <v>5</v>
@@ -9873,77 +11160,83 @@
       <c r="G29" s="3">
         <v>5</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="5">
         <v>8</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <v>5</v>
       </c>
-      <c r="J29" s="5">
+      <c r="K29" s="5">
         <v>6</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6">
         <v>44301.649173865742</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="7">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="3">
+      <c r="E30" s="3">
         <v>2</v>
       </c>
-      <c r="E30" s="3">
+      <c r="F30" s="3">
         <v>6</v>
-      </c>
-      <c r="F30" s="3">
-        <v>7</v>
       </c>
       <c r="G30" s="3">
         <v>7</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="3">
+        <v>7</v>
+      </c>
+      <c r="I30" s="5">
         <v>5</v>
-      </c>
-      <c r="I30" s="5">
-        <v>6</v>
       </c>
       <c r="J30" s="5">
         <v>6</v>
       </c>
       <c r="K30" s="5">
+        <v>6</v>
+      </c>
+      <c r="L30" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6">
         <v>44301.673043206014</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="7">
+        <v>25</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="3">
+      <c r="E31" s="3">
         <v>2</v>
-      </c>
-      <c r="E31" s="3">
-        <v>7</v>
       </c>
       <c r="F31" s="3">
         <v>7</v>
       </c>
       <c r="G31" s="3">
-        <v>6</v>
-      </c>
-      <c r="H31" s="5">
+        <v>7</v>
+      </c>
+      <c r="H31" s="3">
         <v>6</v>
       </c>
       <c r="I31" s="5">
@@ -9953,110 +11246,112 @@
         <v>6</v>
       </c>
       <c r="K31" s="5">
+        <v>6</v>
+      </c>
+      <c r="L31" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D32" s="2"/>
+    <row r="32" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="4"/>
+      <c r="H32" s="2"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="13">
-        <f t="shared" ref="D33:K33" si="0">AVERAGE(D2:D31)</f>
+      <c r="C33" s="21">
+        <v>26.1</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="13">
+        <f t="shared" ref="E33:L33" si="0">AVERAGE(E2:E31)</f>
         <v>3.5333333333333332</v>
       </c>
-      <c r="E33" s="13">
+      <c r="F33" s="13">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="F33" s="13">
+      <c r="G33" s="13">
         <f t="shared" si="0"/>
         <v>5.7333333333333334</v>
       </c>
-      <c r="G33" s="13">
+      <c r="H33" s="13">
         <f t="shared" si="0"/>
         <v>5.7666666666666666</v>
       </c>
-      <c r="H33" s="14">
+      <c r="I33" s="14">
         <f t="shared" si="0"/>
         <v>6.1333333333333337</v>
       </c>
-      <c r="I33" s="14">
+      <c r="J33" s="14">
         <f t="shared" si="0"/>
         <v>5.3666666666666663</v>
       </c>
-      <c r="J33" s="14">
+      <c r="K33" s="14">
         <f t="shared" si="0"/>
         <v>5.6333333333333337</v>
       </c>
-      <c r="K33" s="15">
+      <c r="L33" s="15">
         <f t="shared" si="0"/>
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D34" s="2"/>
+    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="2"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="G35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="K35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="L35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="8">
+    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D36" s="8">
         <v>1</v>
       </c>
-      <c r="D36" s="9">
-        <f t="shared" ref="D36:K36" si="1">COUNTIF(D2:D31,1)</f>
+      <c r="E36" s="9">
+        <f t="shared" ref="E36:L36" si="1">COUNTIF(E2:E31,1)</f>
         <v>3</v>
-      </c>
-      <c r="E36" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" si="1"/>
@@ -10066,13 +11361,13 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="I36" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
       <c r="J36" s="10">
         <f t="shared" si="1"/>
@@ -10082,18 +11377,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="L36" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="8">
+    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D37" s="8">
         <v>2</v>
       </c>
-      <c r="D37" s="9">
-        <f t="shared" ref="D37:K37" si="2">COUNTIF(D2:D31,2)</f>
+      <c r="E37" s="9">
+        <f t="shared" ref="E37:L37" si="2">COUNTIF(E2:E31,2)</f>
         <v>9</v>
-      </c>
-      <c r="E37" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" si="2"/>
@@ -10101,15 +11396,15 @@
       </c>
       <c r="G37" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I37" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="10">
         <f t="shared" si="2"/>
@@ -10119,18 +11414,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="L37" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="8">
+    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D38" s="8">
         <v>3</v>
       </c>
-      <c r="D38" s="9">
-        <f t="shared" ref="D38:K38" si="3">COUNTIF(D2:D31,3)</f>
+      <c r="E38" s="9">
+        <f t="shared" ref="E38:L38" si="3">COUNTIF(E2:E31,3)</f>
         <v>5</v>
-      </c>
-      <c r="E38" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" si="3"/>
@@ -10140,71 +11435,71 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I38" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I38" s="10">
+      <c r="J38" s="10">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="J38" s="10">
+      <c r="K38" s="10">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K38" s="10">
+      <c r="L38" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="8">
+    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D39" s="8">
         <v>4</v>
       </c>
-      <c r="D39" s="9">
-        <f t="shared" ref="D39:K39" si="4">COUNTIF(D2:D31,4)</f>
+      <c r="E39" s="9">
+        <f t="shared" ref="E39:L39" si="4">COUNTIF(E2:E31,4)</f>
         <v>8</v>
       </c>
-      <c r="E39" s="9">
+      <c r="F39" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F39" s="9">
+      <c r="G39" s="9">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="G39" s="9">
+      <c r="H39" s="9">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="H39" s="10">
+      <c r="I39" s="10">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="I39" s="10">
+      <c r="J39" s="10">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J39" s="10">
+      <c r="K39" s="10">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K39" s="10">
+      <c r="L39" s="10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="8">
+    <row r="40" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D40" s="8">
         <v>5</v>
       </c>
-      <c r="D40" s="9">
-        <f t="shared" ref="D40:K40" si="5">COUNTIF(D2:D31,5)</f>
+      <c r="E40" s="9">
+        <f t="shared" ref="E40:L40" si="5">COUNTIF(E2:E31,5)</f>
         <v>1</v>
-      </c>
-      <c r="E40" s="9">
-        <f t="shared" si="5"/>
-        <v>9</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" si="5"/>
@@ -10212,15 +11507,15 @@
       </c>
       <c r="G40" s="9">
         <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="H40" s="10">
+      <c r="I40" s="10">
         <f t="shared" si="5"/>
         <v>4</v>
-      </c>
-      <c r="I40" s="10">
-        <f t="shared" si="5"/>
-        <v>6</v>
       </c>
       <c r="J40" s="10">
         <f t="shared" si="5"/>
@@ -10230,55 +11525,55 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
+      <c r="L40" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C41" s="8">
+    <row r="41" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D41" s="8">
         <v>6</v>
       </c>
-      <c r="D41" s="9">
-        <f t="shared" ref="D41:K41" si="6">COUNTIF(D2:D31,6)</f>
+      <c r="E41" s="9">
+        <f t="shared" ref="E41:L41" si="6">COUNTIF(E2:E31,6)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="9">
+      <c r="F41" s="9">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="F41" s="9">
+      <c r="G41" s="9">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G41" s="9">
+      <c r="H41" s="9">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="H41" s="10">
+      <c r="I41" s="10">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="I41" s="10">
+      <c r="J41" s="10">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="J41" s="10">
+      <c r="K41" s="10">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="K41" s="10">
+      <c r="L41" s="10">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C42" s="8">
+    <row r="42" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="8">
         <v>7</v>
       </c>
-      <c r="D42" s="9">
-        <f t="shared" ref="D42:K42" si="7">COUNTIF(D2:D31,7)</f>
+      <c r="E42" s="9">
+        <f t="shared" ref="E42:L42" si="7">COUNTIF(E2:E31,7)</f>
         <v>2</v>
-      </c>
-      <c r="E42" s="9">
-        <f t="shared" si="7"/>
-        <v>10</v>
       </c>
       <c r="F42" s="9">
         <f t="shared" si="7"/>
@@ -10286,15 +11581,15 @@
       </c>
       <c r="G42" s="9">
         <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="H42" s="10">
+      <c r="I42" s="10">
         <f t="shared" si="7"/>
         <v>8</v>
-      </c>
-      <c r="I42" s="10">
-        <f t="shared" si="7"/>
-        <v>5</v>
       </c>
       <c r="J42" s="10">
         <f t="shared" si="7"/>
@@ -10302,19 +11597,19 @@
       </c>
       <c r="K42" s="10">
         <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C43" s="8">
+    <row r="43" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="8">
         <v>8</v>
       </c>
-      <c r="D43" s="9">
-        <f t="shared" ref="D43:K43" si="8">COUNTIF(D2:D31,8)</f>
-        <v>0</v>
-      </c>
       <c r="E43" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E43:L43" si="8">COUNTIF(E2:E31,8)</f>
         <v>0</v>
       </c>
       <c r="F43" s="9">
@@ -10325,13 +11620,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
         <f t="shared" si="8"/>
         <v>6</v>
-      </c>
-      <c r="I43" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
       <c r="J43" s="10">
         <f t="shared" si="8"/>
@@ -10341,18 +11636,18 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="L43" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C44" s="8">
+    <row r="44" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D44" s="8">
         <v>9</v>
       </c>
-      <c r="D44" s="9">
-        <f t="shared" ref="D44:K44" si="9">COUNTIF(D2:D31,9)</f>
+      <c r="E44" s="9">
+        <f t="shared" ref="E44:L44" si="9">COUNTIF(E2:E31,9)</f>
         <v>1</v>
-      </c>
-      <c r="E44" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" si="9"/>
@@ -10362,13 +11657,13 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
         <f t="shared" si="9"/>
         <v>1</v>
-      </c>
-      <c r="I44" s="10">
-        <f t="shared" si="9"/>
-        <v>0</v>
       </c>
       <c r="J44" s="10">
         <f t="shared" si="9"/>
@@ -10378,18 +11673,18 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
+      <c r="L44" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="8">
+    <row r="45" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="8">
         <v>10</v>
       </c>
-      <c r="D45" s="9">
-        <f t="shared" ref="D45:K45" si="10">COUNTIF(D2:D31,10)</f>
+      <c r="E45" s="9">
+        <f t="shared" ref="E45:L45" si="10">COUNTIF(E2:E31,10)</f>
         <v>1</v>
-      </c>
-      <c r="E45" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" si="10"/>
@@ -10399,13 +11694,13 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
         <f t="shared" si="10"/>
         <v>1</v>
-      </c>
-      <c r="I45" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
       </c>
       <c r="J45" s="10">
         <f t="shared" si="10"/>
@@ -10415,18 +11710,19 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
+      <c r="L45" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13">
-        <f t="shared" ref="D46:K46" si="11">SUM(D36:D45)</f>
-        <v>30</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C46" s="22"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E46:L46" si="11">SUM(E36:E45)</f>
         <v>30</v>
       </c>
       <c r="F46" s="13">
@@ -10437,7 +11733,7 @@
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
@@ -10449,680 +11745,697 @@
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="14">
         <f t="shared" si="11"/>
         <v>30</v>
       </c>
+      <c r="L46" s="15">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+    <row r="47" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24">
+        <f>STDEV(I11:I31)</f>
+        <v>1.9136103997169223</v>
+      </c>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
     </row>
-    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
+    <row r="48" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="24">
+        <f>STDEV(E11:E31)</f>
+        <v>2.2264642052238024</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
     </row>
-    <row r="49" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="2"/>
+    <row r="49" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="4"/>
+      <c r="H49" s="2"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
     </row>
-    <row r="50" spans="4:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="2"/>
+    <row r="50" spans="5:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="2"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D51" s="2"/>
+    <row r="51" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="4"/>
+      <c r="H51" s="2"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D52" s="2"/>
+    <row r="52" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="4"/>
+      <c r="H52" s="2"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
     </row>
-    <row r="53" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D53" s="2"/>
+    <row r="53" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="2"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
     </row>
-    <row r="54" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D54" s="2"/>
+    <row r="54" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="2"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D55" s="2"/>
+    <row r="55" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="2"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D56" s="2"/>
+    <row r="56" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="2"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D57" s="2"/>
+    <row r="57" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="4"/>
+      <c r="H57" s="2"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D58" s="2"/>
+    <row r="58" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="4"/>
+      <c r="H58" s="2"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D59" s="2"/>
+    <row r="59" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="2"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D60" s="2"/>
+    <row r="60" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="2"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D61" s="2"/>
+    <row r="61" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="4"/>
+      <c r="H61" s="2"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D62" s="2"/>
+    <row r="62" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="4"/>
+      <c r="H62" s="2"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D63" s="2"/>
+    <row r="63" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="4"/>
+      <c r="H63" s="2"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D64" s="2"/>
+    <row r="64" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="4"/>
+      <c r="H64" s="2"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
     </row>
-    <row r="65" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D65" s="2"/>
+    <row r="65" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="4"/>
+      <c r="H65" s="2"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D66" s="2"/>
+    <row r="66" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="4"/>
+      <c r="H66" s="2"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D67" s="2"/>
+    <row r="67" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="4"/>
+      <c r="H67" s="2"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D68" s="2"/>
+    <row r="68" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="4"/>
+      <c r="H68" s="2"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D69" s="2"/>
+    <row r="69" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="2"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D70" s="2"/>
+    <row r="70" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="2"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D71" s="2"/>
+    <row r="71" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="4"/>
+      <c r="H71" s="2"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
     </row>
-    <row r="72" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D72" s="2"/>
+    <row r="72" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="4"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
     </row>
-    <row r="73" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D73" s="2"/>
+    <row r="73" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="4"/>
+      <c r="H73" s="2"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D74" s="2"/>
+    <row r="74" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="4"/>
+      <c r="H74" s="2"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D75" s="2"/>
+    <row r="75" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="4"/>
+      <c r="H75" s="2"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D76" s="2"/>
+    <row r="76" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="4"/>
+      <c r="H76" s="2"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D77" s="2"/>
+    <row r="77" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="4"/>
+      <c r="H77" s="2"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D78" s="2"/>
+    <row r="78" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="4"/>
+      <c r="H78" s="2"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D79" s="2"/>
+    <row r="79" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="4"/>
+      <c r="H79" s="2"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
     </row>
-    <row r="80" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D80" s="2"/>
+    <row r="80" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="4"/>
+      <c r="H80" s="2"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D81" s="2"/>
+    <row r="81" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="4"/>
+      <c r="H81" s="2"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D82" s="2"/>
+    <row r="82" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="4"/>
+      <c r="H82" s="2"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D83" s="2"/>
+    <row r="83" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="4"/>
+      <c r="H83" s="2"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D84" s="2"/>
+    <row r="84" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="4"/>
+      <c r="H84" s="2"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D85" s="2"/>
+    <row r="85" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="4"/>
+      <c r="H85" s="2"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D86" s="2"/>
+    <row r="86" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="4"/>
+      <c r="H86" s="2"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D87" s="2"/>
+    <row r="87" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="4"/>
+      <c r="H87" s="2"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D88" s="2"/>
+    <row r="88" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="4"/>
+      <c r="H88" s="2"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D89" s="2"/>
+    <row r="89" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="4"/>
+      <c r="H89" s="2"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D90" s="2"/>
+    <row r="90" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="4"/>
+      <c r="H90" s="2"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D91" s="2"/>
+    <row r="91" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="4"/>
+      <c r="H91" s="2"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D92" s="2"/>
+    <row r="92" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="4"/>
+      <c r="H92" s="2"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D93" s="2"/>
+    <row r="93" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="4"/>
+      <c r="H93" s="2"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D94" s="2"/>
+    <row r="94" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="4"/>
+      <c r="H94" s="2"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
     </row>
-    <row r="95" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D95" s="2"/>
+    <row r="95" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="4"/>
+      <c r="H95" s="2"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D96" s="2"/>
+    <row r="96" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="4"/>
+      <c r="H96" s="2"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D97" s="2"/>
+    <row r="97" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="4"/>
+      <c r="H97" s="2"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D98" s="2"/>
+    <row r="98" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="4"/>
+      <c r="H98" s="2"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D99" s="2"/>
+    <row r="99" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="4"/>
+      <c r="H99" s="2"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D100" s="2"/>
+    <row r="100" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="4"/>
+      <c r="H100" s="2"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D101" s="2"/>
+    <row r="101" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="4"/>
+      <c r="H101" s="2"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D102" s="2"/>
+    <row r="102" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="4"/>
+      <c r="H102" s="2"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
     </row>
-    <row r="103" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D103" s="2"/>
+    <row r="103" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="4"/>
+      <c r="H103" s="2"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D104" s="2"/>
+    <row r="104" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="4"/>
+      <c r="H104" s="2"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D105" s="2"/>
+    <row r="105" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="4"/>
+      <c r="H105" s="2"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D106" s="2"/>
+    <row r="106" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="4"/>
+      <c r="H106" s="2"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D107" s="2"/>
+    <row r="107" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="4"/>
+      <c r="H107" s="2"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D108" s="2"/>
+    <row r="108" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="4"/>
+      <c r="H108" s="2"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D109" s="2"/>
+    <row r="109" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="4"/>
+      <c r="H109" s="2"/>
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D110" s="2"/>
+    <row r="110" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="4"/>
+      <c r="H110" s="2"/>
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D111" s="2"/>
+    <row r="111" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="4"/>
+      <c r="H111" s="2"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D112" s="2"/>
+    <row r="112" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="4"/>
+      <c r="H112" s="2"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="4:11" ht="13" x14ac:dyDescent="0.15">
-      <c r="D113" s="2"/>
+    <row r="113" spans="5:12" ht="13" x14ac:dyDescent="0.15">
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="4"/>
+      <c r="H113" s="2"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+    </row>
+    <row r="163" spans="6:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F163" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
